--- a/data/trans_dic/iP30A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A1_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>89,57%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,84; 90,71</t>
+          <t>84,47; 92,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,92; 92,03</t>
+          <t>86,1; 93,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,65</t>
+          <t>86,75; 91,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>88,6%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,47; 92,55</t>
+          <t>83,84; 90,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,1; 93,22</t>
+          <t>85,92; 92,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,75; 91,98</t>
+          <t>86,09; 90,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A1_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>94,21%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,52; 95,49</t>
+          <t>83,78; 96,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,41; 96,16</t>
+          <t>89,71; 98,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,24; 94,91</t>
+          <t>89,69; 96,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,47; 92,55</t>
+          <t>88,58; 95,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,1; 93,22</t>
+          <t>87,11; 94,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,75; 91,98</t>
+          <t>88,81; 93,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>91,03%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,84; 90,71</t>
+          <t>86,09; 94,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,92; 92,03</t>
+          <t>87,07; 94,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,65</t>
+          <t>88,0; 93,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>88,64%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,45; 91,09</t>
+          <t>82,9; 91,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,78; 92,02</t>
+          <t>86,12; 92,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,91; 90,89</t>
+          <t>85,49; 90,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>90,97%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>90,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>87,54; 92,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88,9; 92,73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88,99; 91,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
